--- a/config_3.9/game_enter_btn_config.xlsx
+++ b/config_3.9/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1543,10 +1543,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>121#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>9#80#122#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1619,6 +1615,10 @@
   <si>
     <t>16;101;11;31;#</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2269,7 +2269,7 @@
         <v>200</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2582,7 +2582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2615,7 +2615,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -2768,7 +2768,7 @@
         <v>291</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -2946,7 +2946,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3010,7 +3010,7 @@
         <v>229</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -3048,7 +3048,7 @@
         <v>230</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -3086,7 +3086,7 @@
         <v>279</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -3124,7 +3124,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -3162,7 +3162,7 @@
         <v>154</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3175,8 +3175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3200,7 +3200,7 @@
         <v>147</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3214,10 +3214,10 @@
   <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E114" sqref="E114"/>
+      <selection pane="bottomRight" activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3444,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E12" s="6">
         <v>11</v>
@@ -5011,7 +5011,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E102">
         <v>101</v>
@@ -5425,7 +5425,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5434,7 +5434,7 @@
         <v>125</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -5485,7 +5485,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5560,7 +5560,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5624,7 +5624,7 @@
         <v>234</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -5813,7 +5813,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5949,7 +5949,7 @@
         <v>324</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>

--- a/config_3.9/game_enter_btn_config.xlsx
+++ b/config_3.9/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="16" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="17" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="372">
   <si>
     <t>id|行号</t>
   </si>
@@ -1428,10 +1428,6 @@
   </si>
   <si>
     <t>36;113;89;105#97;11;93;94#58;107#30#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>111#112#53#79#36;113;89;93;11#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1650,6 +1646,22 @@
   </si>
   <si>
     <t>101#11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_xrxsfl",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人限时福利</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>111#112#53#79#36;113;89;93;11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>126#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2287,10 +2299,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>325</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2301,7 +2313,7 @@
         <v>199</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2309,10 +2321,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -2647,7 +2659,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -2702,8 +2714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2735,7 +2747,7 @@
         <v>108</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>319</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2756,7 +2768,9 @@
       <c r="B4" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>371</v>
+      </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2800,7 +2814,7 @@
         <v>290</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -2969,7 +2983,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2980,7 +2994,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3044,7 +3058,7 @@
         <v>228</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -3082,7 +3096,7 @@
         <v>229</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -3095,7 +3109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -3120,7 +3134,7 @@
         <v>278</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -3159,7 +3173,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3197,7 +3211,7 @@
         <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3208,7 +3222,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3246,7 +3260,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3257,13 +3271,13 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="E112" sqref="A112:E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3302,7 +3316,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -3484,13 +3498,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E12" s="6">
         <v>11</v>
@@ -3648,7 +3662,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3828,7 +3842,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -5057,7 +5071,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E102">
         <v>101</v>
@@ -5335,7 +5349,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5344,7 +5358,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5352,7 +5366,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5361,7 +5375,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5369,7 +5383,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5378,7 +5392,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5386,7 +5400,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5395,7 +5409,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5403,7 +5417,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5412,7 +5426,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5420,7 +5434,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5429,7 +5443,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5437,7 +5451,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5446,7 +5460,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -5454,7 +5468,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5463,7 +5477,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -5471,7 +5485,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5480,7 +5494,24 @@
         <v>125</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>126</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -5522,7 +5553,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5533,7 +5564,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5597,7 +5628,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5608,7 +5639,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5672,7 +5703,7 @@
         <v>233</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -5861,7 +5892,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5900,7 +5931,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>305</v>
@@ -5994,10 +6025,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>

--- a/config_3.9/game_enter_btn_config.xlsx
+++ b/config_3.9/game_enter_btn_config.xlsx
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="376">
   <si>
     <t>id|行号</t>
   </si>
@@ -1662,6 +1662,22 @@
   </si>
   <si>
     <t>126#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_3dby_xyxtg",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏托管</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right_shtx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>127#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1891,7 +1907,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1966,6 +1982,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2712,10 +2731,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2815,6 +2834,17 @@
       </c>
       <c r="C8" s="6" t="s">
         <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="25">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -3271,13 +3301,13 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E112" sqref="A112:E113"/>
+      <selection pane="bottomRight" activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5512,6 +5542,23 @@
       </c>
       <c r="F127" s="6" t="s">
         <v>369</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>127</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.9/game_enter_btn_config.xlsx
+++ b/config_3.9/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="16" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="369">
   <si>
     <t>id|行号</t>
   </si>
@@ -292,10 +292,6 @@
   </si>
   <si>
     <t>14#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>13#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1593,31 +1589,67 @@
     <t>101;11#</t>
   </si>
   <si>
-    <t>101;11#</t>
+    <t>actp_no_cjj_gej_exchange</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_cjj_gej_exchange</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>101#</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>16;31;90;101;11#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16;31;101;11#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_no_cjj_gej_exchange</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_cjj_gej_exchange</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16;101;11;31;#</t>
+    <t>11#</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;31;90;101#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11#</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;31;101#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>101#</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>101#11#</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;101;31;#11#</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>100#</t>
+    <t>101#11#</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>11#</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>101#11#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2247,7 +2279,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2255,10 +2287,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>326</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2266,10 +2298,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2277,10 +2309,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -2320,10 +2352,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2357,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2368,10 +2400,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2417,7 +2449,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2425,10 +2457,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2467,10 +2499,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2511,7 +2543,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2519,10 +2551,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2568,7 +2600,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2615,7 +2647,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -2657,7 +2689,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2689,10 +2721,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2700,10 +2732,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2711,10 +2743,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2722,7 +2754,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C4" s="6"/>
       <c r="F4" s="6"/>
@@ -2732,10 +2764,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2743,10 +2775,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2754,10 +2786,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2765,10 +2797,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -2800,10 +2832,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2811,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2822,7 +2854,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2832,10 +2864,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2843,10 +2875,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2854,10 +2886,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2865,10 +2897,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2876,10 +2908,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2905,7 +2937,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2936,7 +2968,9 @@
       <c r="B2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -2946,7 +2980,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2954,10 +2988,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2996,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -3007,10 +3041,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3024,7 +3058,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3045,10 +3079,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3061,8 +3095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3083,15 +3117,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3121,10 +3156,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -3134,6 +3169,55 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -3148,48 +3232,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3197,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -3214,10 +3260,10 @@
   <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D101" sqref="D101"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3236,13 +3282,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>50</v>
@@ -3256,7 +3302,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -3274,7 +3320,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -3292,13 +3338,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -3438,13 +3484,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E12" s="6">
         <v>11</v>
@@ -3602,7 +3648,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3638,7 +3684,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -3648,7 +3694,7 @@
         <v>22</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3656,7 +3702,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="6">
         <v>1</v>
@@ -3666,7 +3712,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3674,7 +3720,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="6">
         <v>0</v>
@@ -3684,7 +3730,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3692,7 +3738,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="6">
         <v>1</v>
@@ -3702,7 +3748,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3710,7 +3756,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="6">
         <v>1</v>
@@ -3720,7 +3766,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3728,7 +3774,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" s="6">
         <v>1</v>
@@ -3738,7 +3784,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3746,7 +3792,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -3756,7 +3802,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3764,7 +3810,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="6">
         <v>1</v>
@@ -3774,7 +3820,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3782,7 +3828,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -3792,7 +3838,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3800,7 +3846,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -3810,7 +3856,7 @@
         <v>31</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3818,7 +3864,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -3828,7 +3874,7 @@
         <v>32</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3836,7 +3882,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="6">
         <v>1</v>
@@ -3846,7 +3892,7 @@
         <v>33</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3854,7 +3900,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" s="6">
         <v>1</v>
@@ -3864,7 +3910,7 @@
         <v>34</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3872,7 +3918,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="6">
         <v>1</v>
@@ -3882,7 +3928,7 @@
         <v>35</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3890,7 +3936,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C37" s="6">
         <v>1</v>
@@ -3900,7 +3946,7 @@
         <v>36</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3908,7 +3954,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" s="6">
         <v>1</v>
@@ -3918,7 +3964,7 @@
         <v>37</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3926,7 +3972,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C39" s="6">
         <v>1</v>
@@ -3936,7 +3982,7 @@
         <v>38</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3944,7 +3990,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C40" s="6">
         <v>1</v>
@@ -3954,7 +4000,7 @@
         <v>39</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -3962,7 +4008,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C41" s="6">
         <v>1</v>
@@ -3972,7 +4018,7 @@
         <v>40</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -3980,7 +4026,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3989,7 +4035,7 @@
         <v>41</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -3997,7 +4043,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4006,7 +4052,7 @@
         <v>42</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -4014,7 +4060,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4023,7 +4069,7 @@
         <v>43</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -4031,7 +4077,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4040,7 +4086,7 @@
         <v>44</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -4048,7 +4094,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4057,7 +4103,7 @@
         <v>45</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -4065,7 +4111,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4074,7 +4120,7 @@
         <v>46</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -4082,7 +4128,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4091,7 +4137,7 @@
         <v>47</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -4099,7 +4145,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4108,7 +4154,7 @@
         <v>48</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -4116,7 +4162,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -4125,7 +4171,7 @@
         <v>49</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -4133,7 +4179,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4142,7 +4188,7 @@
         <v>50</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -4150,7 +4196,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4159,7 +4205,7 @@
         <v>51</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -4167,7 +4213,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4176,7 +4222,7 @@
         <v>52</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4184,7 +4230,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C54" s="6">
         <v>1</v>
@@ -4194,7 +4240,7 @@
         <v>53</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -4202,7 +4248,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4211,7 +4257,7 @@
         <v>54</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -4219,7 +4265,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4228,7 +4274,7 @@
         <v>55</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -4236,7 +4282,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4245,7 +4291,7 @@
         <v>56</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -4253,7 +4299,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4262,7 +4308,7 @@
         <v>57</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -4270,7 +4316,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4279,7 +4325,7 @@
         <v>58</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -4287,7 +4333,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4296,7 +4342,7 @@
         <v>59</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -4304,7 +4350,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4313,7 +4359,7 @@
         <v>60</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -4321,7 +4367,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4330,7 +4376,7 @@
         <v>61</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -4338,7 +4384,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4347,7 +4393,7 @@
         <v>62</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -4355,7 +4401,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4364,7 +4410,7 @@
         <v>63</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4372,7 +4418,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4381,7 +4427,7 @@
         <v>64</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4389,7 +4435,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4398,7 +4444,7 @@
         <v>65</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -4406,7 +4452,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4415,7 +4461,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4423,7 +4469,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4432,7 +4478,7 @@
         <v>67</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -4440,7 +4486,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4449,7 +4495,7 @@
         <v>68</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4457,7 +4503,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4466,7 +4512,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4474,7 +4520,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4483,7 +4529,7 @@
         <v>70</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4491,7 +4537,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4500,7 +4546,7 @@
         <v>71</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4508,7 +4554,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4517,7 +4563,7 @@
         <v>72</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -4525,7 +4571,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4534,7 +4580,7 @@
         <v>73</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4542,7 +4588,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4551,7 +4597,7 @@
         <v>74</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4559,7 +4605,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4568,7 +4614,7 @@
         <v>75</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -4576,7 +4622,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4585,7 +4631,7 @@
         <v>76</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -4593,7 +4639,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4602,7 +4648,7 @@
         <v>77</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -4610,7 +4656,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4619,7 +4665,7 @@
         <v>78</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -4627,7 +4673,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4636,7 +4682,7 @@
         <v>79</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4644,7 +4690,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4653,7 +4699,7 @@
         <v>80</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -4661,7 +4707,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4670,7 +4716,7 @@
         <v>81</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4678,7 +4724,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4687,7 +4733,7 @@
         <v>82</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4695,7 +4741,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4704,7 +4750,7 @@
         <v>83</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4712,7 +4758,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4721,7 +4767,7 @@
         <v>84</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4729,7 +4775,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4738,7 +4784,7 @@
         <v>85</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4746,7 +4792,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4755,7 +4801,7 @@
         <v>86</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4763,19 +4809,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4783,7 +4829,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4792,7 +4838,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4800,7 +4846,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4809,7 +4855,7 @@
         <v>89</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4817,7 +4863,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4826,7 +4872,7 @@
         <v>90</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4834,7 +4880,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4843,7 +4889,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4851,7 +4897,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4860,7 +4906,7 @@
         <v>92</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4868,7 +4914,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4877,7 +4923,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4885,7 +4931,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4894,7 +4940,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4902,7 +4948,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4911,7 +4957,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4919,7 +4965,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4928,7 +4974,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4936,7 +4982,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4946,7 +4992,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4954,7 +5000,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4963,7 +5009,7 @@
         <v>98</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4971,7 +5017,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4980,7 +5026,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4988,7 +5034,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4997,7 +5043,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -5005,19 +5051,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -5025,7 +5071,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C103" s="20">
         <v>1</v>
@@ -5034,7 +5080,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -5042,7 +5088,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -5051,7 +5097,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5059,7 +5105,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C105" s="15">
         <v>1</v>
@@ -5068,7 +5114,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -5076,19 +5122,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -5096,7 +5142,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -5105,7 +5151,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -5113,7 +5159,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -5122,7 +5168,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5130,7 +5176,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5139,7 +5185,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -5147,7 +5193,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5156,7 +5202,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5164,7 +5210,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5173,7 +5219,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5181,7 +5227,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5190,7 +5236,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5198,7 +5244,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5207,7 +5253,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5215,7 +5261,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5224,7 +5270,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5232,7 +5278,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5241,7 +5287,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5249,19 +5295,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5269,19 +5315,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>315</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5289,7 +5335,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5298,7 +5344,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5306,7 +5352,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5315,7 +5361,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5323,7 +5369,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5332,7 +5378,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5340,7 +5386,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5349,7 +5395,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5357,7 +5403,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5366,7 +5412,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5374,7 +5420,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5383,7 +5429,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5391,7 +5437,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5400,7 +5446,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -5408,7 +5454,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5417,7 +5463,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -5425,7 +5471,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5434,7 +5480,7 @@
         <v>125</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -5475,7 +5521,9 @@
       <c r="B2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -5485,7 +5533,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5493,7 +5541,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -5517,7 +5565,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5549,7 +5597,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>55</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5560,7 +5608,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5568,10 +5616,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5579,7 +5627,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -5595,7 +5643,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5621,10 +5669,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -5638,7 +5686,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5670,7 +5718,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5678,10 +5726,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D3"/>
     </row>
@@ -5697,7 +5745,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5729,7 +5777,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5746,10 +5794,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -5757,10 +5805,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -5813,7 +5861,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5829,10 +5877,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5852,10 +5900,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -5871,7 +5919,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="6">
@@ -5889,10 +5937,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="D6" s="6">
         <f>'all_enter|所有按钮入口'!E6</f>
@@ -5908,10 +5956,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" s="6">
         <f>'all_enter|所有按钮入口'!E7</f>
@@ -5927,10 +5975,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!E8</f>
@@ -5946,10 +5994,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>
@@ -7038,7 +7086,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
